--- a/english.xlsx
+++ b/english.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Giới từ trong tiếng anh" sheetId="1" r:id="rId1"/>
-    <sheet name="Liên từ trong tiếng anh" sheetId="2" r:id="rId2"/>
+    <sheet name="Giới Từ" sheetId="1" r:id="rId1"/>
+    <sheet name="Liên Từ" sheetId="2" r:id="rId2"/>
+    <sheet name="Thời Gian" sheetId="3" r:id="rId3"/>
+    <sheet name="Câu hỏi" sheetId="4" r:id="rId4"/>
+    <sheet name="Gia Đình " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -830,4 +833,42 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>